--- a/data/input/Scenario_Component_Vehicle.xlsx
+++ b/data/input/Scenario_Component_Vehicle.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Documents\code\3E\Flex\data\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E9D3A1-CEBF-44CB-80B3-22AD27E24BF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="11295"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Vehicle" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>ID_Vehicle</t>
   </si>
@@ -75,8 +76,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -112,7 +113,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -128,22 +129,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M2" totalsRowShown="0">
-  <autoFilter ref="A1:M2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:M4" totalsRowShown="0">
+  <autoFilter ref="A1:M4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="ID_Vehicle"/>
-    <tableColumn id="2" name="type"/>
-    <tableColumn id="3" name="capacity"/>
-    <tableColumn id="4" name="capacity_unit"/>
-    <tableColumn id="5" name="consumption_rate"/>
-    <tableColumn id="6" name="consumption_rate_unit"/>
-    <tableColumn id="7" name="charge_efficiency"/>
-    <tableColumn id="8" name="charge_power_max"/>
-    <tableColumn id="9" name="charge_power_max_unit"/>
-    <tableColumn id="10" name="discharge_efficiency"/>
-    <tableColumn id="11" name="discharge_power_max"/>
-    <tableColumn id="12" name="discharge_power_max_unit"/>
-    <tableColumn id="13" name="charge_bidirectional"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID_Vehicle"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="type"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="capacity"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="capacity_unit"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="consumption_rate"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="consumption_rate_unit"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="charge_efficiency"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="charge_power_max"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="charge_power_max_unit"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="discharge_efficiency"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="discharge_power_max"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="discharge_power_max_unit"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="charge_bidirectional"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -411,14 +412,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -437,7 +438,7 @@
     <col min="15" max="15" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,7 +481,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -518,6 +519,47 @@
         <v>16</v>
       </c>
       <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3">
         <v>0</v>
       </c>
     </row>

--- a/data/input/Scenario_Component_Vehicle.xlsx
+++ b/data/input/Scenario_Component_Vehicle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E9D3A1-CEBF-44CB-80B3-22AD27E24BF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597AD251-F874-44B2-9067-59A27B1CC5CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,7 +416,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -495,7 +495,7 @@
         <v>14</v>
       </c>
       <c r="E2">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>

--- a/data/input/Scenario_Component_Vehicle.xlsx
+++ b/data/input/Scenario_Component_Vehicle.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597AD251-F874-44B2-9067-59A27B1CC5CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24320" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Vehicle" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>ID_Vehicle</t>
   </si>
@@ -76,27 +70,371 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -104,47 +442,333 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
+    <cellStyle name="Total" xfId="24" builtinId="25"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="Currency" xfId="26" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
+    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
+    <cellStyle name="Link" xfId="43" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:M4" totalsRowShown="0">
-  <autoFilter ref="A1:M4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M4" totalsRowShown="0">
+  <autoFilter ref="A1:M4"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID_Vehicle"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="capacity"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="capacity_unit"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="consumption_rate"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="consumption_rate_unit"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="charge_efficiency"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="charge_power_max"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="charge_power_max_unit"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="discharge_efficiency"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="discharge_power_max"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="discharge_power_max_unit"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="charge_bidirectional"/>
+    <tableColumn id="1" name="ID_Vehicle"/>
+    <tableColumn id="2" name="type"/>
+    <tableColumn id="3" name="capacity"/>
+    <tableColumn id="4" name="capacity_unit"/>
+    <tableColumn id="5" name="consumption_rate"/>
+    <tableColumn id="6" name="consumption_rate_unit"/>
+    <tableColumn id="7" name="charge_efficiency"/>
+    <tableColumn id="8" name="charge_power_max"/>
+    <tableColumn id="9" name="charge_power_max_unit"/>
+    <tableColumn id="10" name="discharge_efficiency"/>
+    <tableColumn id="11" name="discharge_power_max"/>
+    <tableColumn id="12" name="discharge_power_max_unit"/>
+    <tableColumn id="13" name="charge_bidirectional"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -193,7 +817,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -228,7 +852,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -402,40 +1026,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.859375" customWidth="1"/>
+    <col min="3" max="3" width="10.2890625" customWidth="1"/>
+    <col min="4" max="4" width="14.859375" customWidth="1"/>
+    <col min="5" max="5" width="19.2890625" customWidth="1"/>
+    <col min="6" max="6" width="23.859375" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.4296875" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="10" max="10" width="21.2890625" customWidth="1"/>
     <col min="11" max="11" width="23" customWidth="1"/>
     <col min="12" max="12" width="27.5703125" customWidth="1"/>
-    <col min="13" max="13" width="21.28515625" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.2890625" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" customWidth="1"/>
+    <col min="15" max="15" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -481,7 +1100,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -522,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
@@ -530,41 +1149,83 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>62100</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6133.33</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>6133.33</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
       </c>
       <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/data/input/Scenario_Component_Vehicle.xlsx
+++ b/data/input/Scenario_Component_Vehicle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24320" windowHeight="11400"/>
+    <workbookView windowWidth="30240" windowHeight="14680"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Vehicle" sheetId="1" r:id="rId1"/>
@@ -72,12 +72,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -85,34 +85,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -120,15 +145,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,20 +159,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -164,8 +167,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,31 +182,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,9 +198,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,15 +214,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,109 +244,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,73 +418,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,23 +441,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,6 +486,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -521,176 +512,180 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1034,8 +1029,8 @@
   <sheetPr/>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14" outlineLevelRow="3"/>
@@ -1138,7 +1133,7 @@
         <v>16</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1179,7 +1174,7 @@
         <v>16</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">

--- a/data/input/Scenario_Component_Vehicle.xlsx
+++ b/data/input/Scenario_Component_Vehicle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14680"/>
+    <workbookView windowWidth="30240" windowHeight="14720"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Vehicle" sheetId="1" r:id="rId1"/>
@@ -72,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -85,44 +85,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,16 +121,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,14 +207,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -176,60 +214,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,181 +250,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,11 +447,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,190 +535,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -748,8 +748,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M4" totalsRowShown="0">
-  <autoFilter ref="A1:M4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M2" totalsRowShown="0">
+  <autoFilter ref="A1:M2"/>
   <tableColumns count="13">
     <tableColumn id="1" name="ID_Vehicle"/>
     <tableColumn id="2" name="type"/>
@@ -1027,13 +1027,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.859375" customWidth="1"/>
@@ -1103,118 +1103,36 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>62100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
       </c>
       <c r="G2">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>6133.33</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
       </c>
       <c r="J2">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>6133.33</v>
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
       </c>
       <c r="M2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>62100</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>0.95</v>
-      </c>
-      <c r="H3">
-        <v>6133.33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3">
-        <v>0.95</v>
-      </c>
-      <c r="K3">
-        <v>6133.33</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4">
         <v>0</v>
       </c>
     </row>

--- a/data/input/Scenario_Component_Vehicle.xlsx
+++ b/data/input/Scenario_Component_Vehicle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14720"/>
+    <workbookView windowWidth="30240" windowHeight="14660"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Vehicle" sheetId="1" r:id="rId1"/>
@@ -72,12 +72,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -85,7 +85,149 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,144 +240,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,19 +250,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor theme="8" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,43 +430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,122 +440,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -438,11 +450,57 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="8" tint="0.399975585192419"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="0.399975585192419"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,11 +520,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,21 +571,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -524,168 +584,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1030,7 +1082,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14" outlineLevelRow="1"/>
@@ -1092,47 +1144,47 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="4">
         <v>0</v>
       </c>
     </row>
